--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/50/Output_22_45.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/50/Output_22_45.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11825.95278715539</v>
+        <v>2353364.604643923</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11825.95278715539</v>
+        <v>2353364.604643923</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>22149.2272771684</v>
+        <v>1328953.636630104</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>22149.2272771684</v>
+        <v>1328953.636630104</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>960784497.0710211</v>
+        <v>40844741.47806998</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>10262.22107197025</v>
+        <v>1136084.651590822</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>18489.16009518666</v>
+        <v>1923195.301798693</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>26716.09911840306</v>
+        <v>2710305.952006565</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>35037.43007254291</v>
+        <v>3497175.88333712</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>43358.76102668274</v>
+        <v>4284045.814667676</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>51678.90760396209</v>
+        <v>5070805.422553652</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>59999.60857041019</v>
+        <v>5857675.353884203</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>68320.30953685826</v>
+        <v>6644545.285214754</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>77196.56631984004</v>
+        <v>7363609.927498158</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>86177.12119377679</v>
+        <v>8103429.889881607</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>95157.67606771356</v>
+        <v>8843249.852265062</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>104138.2309416503</v>
+        <v>9583069.81464852</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>113118.785815587</v>
+        <v>10322889.77703198</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>122099.3406895238</v>
+        <v>11062709.73941544</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>131079.8955634605</v>
+        <v>11802529.7017989</v>
       </c>
     </row>
   </sheetData>
@@ -27037,13 +27037,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
         <v>349</v>
@@ -27058,13 +27058,13 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J2" t="n">
         <v>217</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27144,22 +27144,22 @@
         <v>1231</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
